--- a/designs/internal_designs/Admin.xlsx
+++ b/designs/internal_designs/Admin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiteshah\Desktop\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\productivity\designs\internal_designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Home</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Meta Tags</t>
+  </si>
+  <si>
+    <t>Push To Website</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Add Sub Category</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>View Sub categories</t>
+  </si>
+  <si>
+    <t>View Products</t>
   </si>
 </sst>
 </file>
@@ -76,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +128,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,26 +184,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,34 +555,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -583,32 +643,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -620,34 +689,83 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="K3" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:J1"/>
+  <mergeCells count="4">
     <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/designs/internal_designs/Admin.xlsx
+++ b/designs/internal_designs/Admin.xlsx
@@ -75,9 +75,6 @@
     <t>Created Date</t>
   </si>
   <si>
-    <t>Insert</t>
-  </si>
-  <si>
     <t>Add Sub Category</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>View Products</t>
+  </si>
+  <si>
+    <t>Insert New Category</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,35 +714,35 @@
         <v>15</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
       <c r="K6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
